--- a/Models_Results.xlsx
+++ b/Models_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="158">
   <si>
     <t>Random Forest</t>
   </si>
@@ -593,7 +593,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,9 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,16 +968,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="27.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
@@ -995,37 +992,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1035,41 +1032,41 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.68</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>15</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0.49109999999999998</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>13</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>1.409</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="17">
+      <c r="K3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="16">
         <f>1 - 0.09</f>
         <v>0.91</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="N3" t="s">
@@ -1077,39 +1074,39 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>12</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>7</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>1.2509999999999999</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f>1-0.13</f>
         <v>0.87</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N4" t="s">
@@ -1117,39 +1114,39 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="19"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>1.5349999999999999</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>37</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.7006</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>37</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1.843</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="N5" t="s">
@@ -1157,39 +1154,39 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>15</v>
       </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>12</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>1.5940000000000001</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f>1-0.74</f>
         <v>0.26</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N6" t="s">
@@ -1197,39 +1194,39 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>16</v>
       </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <v>13</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>1.2669999999999999</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>1-0.5</f>
         <v>0.5</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="N7" t="s">
@@ -1237,39 +1234,39 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>10</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <v>6</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>1.361</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="9">
         <f>1-0.17</f>
         <v>0.83</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="N8" t="s">
@@ -1277,39 +1274,39 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>16</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.29555999999999999</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>13</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>1.2689999999999999</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f>1-0.99</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>93</v>
       </c>
       <c r="N9" t="s">
@@ -1327,41 +1324,41 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1.0428999999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>4</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>33</v>
       </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>29</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>29</v>
+      </c>
+      <c r="J12" s="13">
         <v>2.8039999999999998</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f>1-0.13</f>
         <v>0.87</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>94</v>
       </c>
       <c r="N12" t="s">
@@ -1369,39 +1366,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>66</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>66</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>0.31830000000000003</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>63</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>66</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>1.4650000000000001</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="10">
+      <c r="K13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="9">
         <f>1-0.31</f>
         <v>0.69</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>95</v>
       </c>
       <c r="N13" t="s">
@@ -1409,39 +1406,39 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="B14" s="19"/>
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
         <v>8.77E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>23</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>66</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>-0.41039999999999999</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>18</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>66</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>2.032</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f>1-0.93</f>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="N14" t="s">
@@ -1449,39 +1446,39 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>60</v>
       </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <v>58</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>1.7450000000000001</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="10">
+      <c r="K15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="N15" t="s">
@@ -1489,39 +1486,39 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <v>66</v>
       </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <v>66</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>1.6359999999999999</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f>1-0.35</f>
         <v>0.65</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>96</v>
       </c>
       <c r="N16" t="s">
@@ -1529,39 +1526,39 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>27</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <v>25</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>2.4990000000000001</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>38</v>
       </c>
       <c r="N17" t="s">
@@ -1569,39 +1566,39 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>7</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>34</v>
       </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <v>31</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>1.9810000000000001</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f>1-0.81</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>97</v>
       </c>
       <c r="N18" t="s">
@@ -1619,41 +1616,41 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <v>95</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <v>95</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>1.7410000000000001</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f>1-0.08</f>
         <v>0.92</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="10" t="s">
         <v>39</v>
       </c>
       <c r="N21" t="s">
@@ -1661,38 +1658,38 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.18568999999999999</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>95</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>0.245</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>6</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>95</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>2.1709999999999998</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="10">
+      <c r="K22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="9">
         <f>1-0.09</f>
         <v>0.91</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="10" t="s">
         <v>98</v>
       </c>
       <c r="N22" t="s">
@@ -1700,38 +1697,38 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>16</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>95</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>14</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>95</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>1.7050000000000001</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f>1-0.89</f>
         <v>0.10999999999999999</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="N23" t="s">
@@ -1739,38 +1736,38 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
         <v>96</v>
       </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
         <v>96</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>1.4239999999999999</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="10">
+      <c r="K24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="9">
         <f>1-0.56</f>
         <v>0.43999999999999995</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="N24" t="s">
@@ -1778,38 +1775,38 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
         <v>94</v>
       </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
         <v>94</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>1.4339999999999999</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f>1-0.01</f>
         <v>0.99</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="10" t="s">
         <v>42</v>
       </c>
       <c r="N25" t="s">
@@ -1817,38 +1814,38 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
         <v>96</v>
       </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
         <v>96</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>1.4590000000000001</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <f>1-0.06</f>
         <v>0.94</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>99</v>
       </c>
       <c r="N26" t="s">
@@ -1856,38 +1853,38 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
         <v>84</v>
       </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
         <v>81</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>1.456</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f>1-0.08</f>
         <v>0.92</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="10" t="s">
         <v>43</v>
       </c>
       <c r="N27" t="s">
@@ -1905,41 +1902,41 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>-4.7300000000000002E-2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>83</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>181</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>-0.122</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>69</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>162</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>3.2770000000000001</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="10">
+      <c r="K30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="9">
         <f>1-0.14</f>
         <v>0.86</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>100</v>
       </c>
       <c r="N30" t="s">
@@ -1947,38 +1944,38 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>12</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>217</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>0.2918</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>22</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>211</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>4.5659999999999998</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="10">
+      <c r="K31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="9">
         <f>1-0.07</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="10" t="s">
         <v>130</v>
       </c>
       <c r="N31" t="s">
@@ -1986,38 +1983,38 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>15</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>177</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>0.2717</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>21</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>156</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <v>3.6120000000000001</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <f>1-0.44</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>131</v>
       </c>
       <c r="N32" t="s">
@@ -2025,38 +2022,38 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>17</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>217</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>-0.58899999999999997</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>4</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>211</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <v>3.452</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="10">
+      <c r="K33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="9">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N33" t="s">
@@ -2064,38 +2061,38 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0.83230000000000004</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>6</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>215</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>2</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>211</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <v>1.893</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <f>1-0.97</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="N34" t="s">
@@ -2103,38 +2100,38 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>0.17219999999999999</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>40</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>217</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>0.61199999999999999</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>12</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>211</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>2.6160000000000001</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="10">
+      <c r="K35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="9">
         <f>1-0.92</f>
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="10" t="s">
         <v>46</v>
       </c>
       <c r="N35" t="s">
@@ -2142,38 +2139,38 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0.21759999999999999</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>10</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>67</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>6</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>46</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="12">
         <v>3.1589999999999998</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="10">
+      <c r="K36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="9">
         <f>1-0.44</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="10" t="s">
         <v>47</v>
       </c>
       <c r="N36" t="s">
@@ -2191,41 +2188,41 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>0.11020000000000001</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>28</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>109</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>-0.12</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>24</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>92</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>3.1259999999999999</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <f>1-0.46</f>
         <v>0.54</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N39" t="s">
@@ -2233,38 +2230,38 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>20</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>448</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <v>1.089</v>
       </c>
-      <c r="H40" s="9">
-        <v>29</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="H40" s="8">
+        <v>29</v>
+      </c>
+      <c r="I40" s="5">
         <v>444</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="12">
         <v>4.5119999999999996</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="10">
+      <c r="K40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="9">
         <f>1-0.09</f>
         <v>0.91</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="10" t="s">
         <v>138</v>
       </c>
       <c r="N40" t="s">
@@ -2272,38 +2269,38 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="C41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
         <v>2.6785000000000001</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>15</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>365</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>17</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>340</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>2.7250000000000001</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f>1-0.43</f>
         <v>0.57000000000000006</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="10" t="s">
         <v>101</v>
       </c>
       <c r="N41" t="s">
@@ -2311,38 +2308,38 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
         <v>314</v>
       </c>
-      <c r="G42" s="13">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
         <v>280</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>2</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="10">
+      <c r="K42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="9">
         <f>1-0.37</f>
         <v>0.63</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="N42" t="s">
@@ -2350,38 +2347,38 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>0.21709999999999999</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>1</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>448</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>1.04</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>1</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>444</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>2.0230000000000001</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <f>1-0.53</f>
         <v>0.47</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="10" t="s">
         <v>50</v>
       </c>
       <c r="N43" t="s">
@@ -2389,38 +2386,38 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>0.14246</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>14</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>337</v>
       </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
         <v>310</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>2.0920000000000001</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="10">
+      <c r="K44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="9">
         <f>1-0.88</f>
         <v>0.12</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="10" t="s">
         <v>51</v>
       </c>
       <c r="N44" t="s">
@@ -2428,38 +2425,38 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>0.3327</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>12</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>360</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>0.86</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>3</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>332</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>2.944</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <f>1-0.42</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="10" t="s">
         <v>102</v>
       </c>
       <c r="N45" t="s">
@@ -2477,41 +2474,41 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>0.59340000000000004</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>1</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>23</v>
       </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="15">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
         <v>16</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="7">
         <v>1.3149999999999999</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L48" s="10">
+      <c r="K48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="9">
         <f>1-0.32</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="10" t="s">
         <v>52</v>
       </c>
       <c r="N48" t="s">
@@ -2519,38 +2516,38 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>0.15240000000000001</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>5</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>41</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>0.59299999999999997</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <v>1</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>30</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="7">
         <v>1.796</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="10">
+      <c r="K49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="9">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="10" t="s">
         <v>103</v>
       </c>
       <c r="N49" t="s">
@@ -2558,38 +2555,38 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="C50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>4</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>28</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <v>0.223</v>
       </c>
-      <c r="H50" s="15">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
+      <c r="H50" s="14">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
         <v>27</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="7">
         <v>1.2829999999999999</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <f>1-0.93</f>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="10" t="s">
         <v>104</v>
       </c>
       <c r="N50" t="s">
@@ -2597,38 +2594,38 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>0.20030000000000001</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>4</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>28</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>4.19E-2</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>14</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>27</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="7">
         <v>1.2130000000000001</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" s="10">
+      <c r="K51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="9">
         <f>1-0.99</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="10" t="s">
         <v>105</v>
       </c>
       <c r="N51" t="s">
@@ -2636,38 +2633,38 @@
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>0.628</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>5</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>97</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <v>0.09</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>12</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>96</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="7">
         <v>1.363</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="10">
+      <c r="K52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="9">
         <f>1-0.97</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="10" t="s">
         <v>132</v>
       </c>
       <c r="N52" t="s">
@@ -2675,38 +2672,38 @@
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="13">
-        <v>0</v>
-      </c>
-      <c r="E53" s="15">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
         <v>28</v>
       </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
         <v>27</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="7">
         <v>1.2749999999999999</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" s="10">
+      <c r="K53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="9">
         <f>1-0.34</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="10" t="s">
         <v>106</v>
       </c>
       <c r="N53" t="s">
@@ -2714,38 +2711,38 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>-6.9500000000000006E-2</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>2</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>48</v>
       </c>
-      <c r="G54" s="13">
-        <v>0</v>
-      </c>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
         <v>44</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>1.3080000000000001</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <f>1-0.96</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="10" t="s">
         <v>139</v>
       </c>
       <c r="N54" t="s">
@@ -2763,41 +2760,41 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>-2.3099999999999999E-2</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>205</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>206</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>-9.8000000000000004E-2</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>191</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>191</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="12">
         <v>3.0569999999999999</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="10">
+      <c r="K57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="9">
         <f>1-0.99</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="10" t="s">
         <v>53</v>
       </c>
       <c r="N57" t="s">
@@ -2805,38 +2802,38 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>1.9059999999999999</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>1</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>47</v>
       </c>
-      <c r="G58" s="13">
-        <v>0</v>
-      </c>
-      <c r="H58" s="15">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6">
-        <v>29</v>
-      </c>
-      <c r="J58" s="13">
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>29</v>
+      </c>
+      <c r="J58" s="12">
         <v>3.073</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="10">
+      <c r="L58" s="9">
         <f>1-0.07</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="10" t="s">
         <v>133</v>
       </c>
       <c r="N58" t="s">
@@ -2844,38 +2841,38 @@
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="C59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
         <v>0.33629999999999999</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>20</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>207</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>24</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>199</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>2.1509999999999998</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="9">
         <f>1-0.51</f>
         <v>0.49</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="10" t="s">
         <v>54</v>
       </c>
       <c r="N59" t="s">
@@ -2883,38 +2880,38 @@
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="13">
-        <v>0</v>
-      </c>
-      <c r="E60" s="15">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
         <v>173</v>
       </c>
-      <c r="G60" s="13">
-        <v>0</v>
-      </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
         <v>160</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>2.2770000000000001</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K60" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="9">
         <f>1-0.19</f>
         <v>0.81</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="10" t="s">
         <v>55</v>
       </c>
       <c r="N60" t="s">
@@ -2922,38 +2919,38 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>141</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>216</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>150</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>214</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <v>2.5259999999999998</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" s="10">
+      <c r="K61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" s="9">
         <f>1-0.99</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="10" t="s">
         <v>107</v>
       </c>
       <c r="N61" t="s">
@@ -2961,38 +2958,38 @@
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>0.35089999999999999</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <v>5</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>208</v>
       </c>
-      <c r="G62" s="13">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="14">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
         <v>202</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>2.181</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="9">
         <f>1-0.91</f>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N62" t="s">
@@ -3000,38 +2997,38 @@
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="13">
-        <v>0</v>
-      </c>
-      <c r="E63" s="15">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
         <v>83</v>
       </c>
-      <c r="G63" s="13">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
         <v>66</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>2.1989999999999998</v>
       </c>
-      <c r="K63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="10">
+      <c r="K63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="9">
         <f>1-0.12</f>
         <v>0.88</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N63" t="s">
@@ -3049,41 +3046,41 @@
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>0.36</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="14">
         <v>2</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>28</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>0.74099999999999999</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="14">
         <v>1</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>22</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="7">
         <v>1.415</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="10">
+      <c r="K66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="9">
         <f>1-0.11</f>
         <v>0.89</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="10" t="s">
         <v>57</v>
       </c>
       <c r="N66" t="s">
@@ -3091,38 +3088,38 @@
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="13">
-        <v>0</v>
-      </c>
-      <c r="E67" s="15">
-        <v>0</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
         <v>115</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <v>-0.32400000000000001</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>1</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>114</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="12">
         <v>3.246</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="9">
         <f>1-0.08</f>
         <v>0.92</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="10" t="s">
         <v>109</v>
       </c>
       <c r="N67" t="s">
@@ -3130,38 +3127,38 @@
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="C68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
         <v>0.29730000000000001</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="14">
         <v>3</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>69</v>
       </c>
-      <c r="G68" s="13">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
+      <c r="G68" s="12">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
         <v>56</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>2.089</v>
       </c>
-      <c r="K68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L68" s="10">
+      <c r="K68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" s="9">
         <f>1-0.5</f>
         <v>0.5</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N68" t="s">
@@ -3169,38 +3166,38 @@
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>9.11E-2</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>5</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>115</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="12">
         <v>-0.24390000000000001</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="14">
         <v>7</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="5">
         <v>113</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="7">
         <v>1.526</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="9">
         <f>1-0.93</f>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="10" t="s">
         <v>110</v>
       </c>
       <c r="N69" t="s">
@@ -3208,38 +3205,38 @@
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="13">
-        <v>0</v>
-      </c>
-      <c r="E70" s="15">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
         <v>115</v>
       </c>
-      <c r="G70" s="13">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6">
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
         <v>114</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="7">
         <v>1.5369999999999999</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="9">
         <f>1-0.24</f>
         <v>0.76</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="10" t="s">
         <v>111</v>
       </c>
       <c r="N70" t="s">
@@ -3247,38 +3244,38 @@
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="13">
-        <v>0</v>
-      </c>
-      <c r="E71" s="15">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6">
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
         <v>69</v>
       </c>
-      <c r="G71" s="13">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
         <v>55</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="7">
         <v>1.837</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="9">
         <f>1-0.3</f>
         <v>0.7</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="10" t="s">
         <v>59</v>
       </c>
       <c r="N71" t="s">
@@ -3286,38 +3283,38 @@
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="13">
         <v>0.17019999999999999</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="14">
         <v>1</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>38</v>
       </c>
-      <c r="G72" s="13">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>29</v>
-      </c>
-      <c r="J72" s="8">
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="14">
+        <v>0</v>
+      </c>
+      <c r="I72" s="5">
+        <v>29</v>
+      </c>
+      <c r="J72" s="7">
         <v>1.3120000000000001</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="9">
         <f>1-0.97</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="10" t="s">
         <v>112</v>
       </c>
       <c r="N72" t="s">
@@ -3335,41 +3332,41 @@
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <v>0.17263999999999999</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>73</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="5">
         <v>757</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="12">
         <v>-0.36709999999999998</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>61</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="5">
         <v>756</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <v>2.3879999999999999</v>
       </c>
-      <c r="K75" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="10">
+      <c r="K75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="9">
         <f>1-0.1</f>
         <v>0.9</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="10" t="s">
         <v>134</v>
       </c>
       <c r="N75" t="s">
@@ -3377,38 +3374,38 @@
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="E76" s="9">
-        <v>29</v>
-      </c>
-      <c r="F76" s="6">
+      <c r="E76" s="8">
+        <v>29</v>
+      </c>
+      <c r="F76" s="5">
         <v>518</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="13">
         <v>0.1406</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>31</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="5">
         <v>459</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="13">
         <v>2.6819999999999999</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" s="10">
+      <c r="K76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="9">
         <f>1-0.18</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="10" t="s">
         <v>113</v>
       </c>
       <c r="N76" t="s">
@@ -3416,38 +3413,38 @@
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C77" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="13">
-        <v>0</v>
-      </c>
-      <c r="E77" s="15">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
+      <c r="C77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
         <v>758</v>
       </c>
-      <c r="G77" s="13">
-        <v>0</v>
-      </c>
-      <c r="H77" s="15">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5">
         <v>757</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="7">
         <v>1.419</v>
       </c>
-      <c r="K77" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L77" s="10">
+      <c r="K77" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="9">
         <f>1-0.03</f>
         <v>0.97</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="10" t="s">
         <v>60</v>
       </c>
       <c r="N77" t="s">
@@ -3455,38 +3452,38 @@
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="13">
-        <v>0</v>
-      </c>
-      <c r="E78" s="15">
-        <v>0</v>
-      </c>
-      <c r="F78" s="6">
+      <c r="D78" s="12">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
         <v>756</v>
       </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
+      <c r="G78" s="12">
+        <v>0</v>
+      </c>
+      <c r="H78" s="14">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5">
         <v>752</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="7">
         <v>1.349</v>
       </c>
-      <c r="K78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" s="10">
+      <c r="K78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="9">
         <f>1-0.33</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="M78" s="11" t="s">
+      <c r="M78" s="10" t="s">
         <v>140</v>
       </c>
       <c r="N78" t="s">
@@ -3494,38 +3491,38 @@
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>0.40560000000000002</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>24</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>757</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <v>0.70699999999999996</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>25</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="5">
         <v>756</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="7">
         <v>1.228</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" s="10">
+      <c r="K79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="9">
         <f>1-0.75</f>
         <v>0.25</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="M79" s="10" t="s">
         <v>61</v>
       </c>
       <c r="N79" t="s">
@@ -3533,38 +3530,38 @@
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="13">
-        <v>0</v>
-      </c>
-      <c r="E80" s="15">
-        <v>0</v>
-      </c>
-      <c r="F80" s="6">
+      <c r="D80" s="12">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
         <v>716</v>
       </c>
-      <c r="G80" s="13">
-        <v>0</v>
-      </c>
-      <c r="H80" s="15">
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
+      <c r="G80" s="12">
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
         <v>712</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="7">
         <v>1.4119999999999999</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" s="10">
+      <c r="K80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="9">
         <f>1-0.63</f>
         <v>0.37</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="10" t="s">
         <v>62</v>
       </c>
       <c r="N80" t="s">
@@ -3572,38 +3569,38 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>1.2801100000000001</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>20</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>635</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="12">
         <v>-0.13</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="14">
         <v>9</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="5">
         <v>618</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="7">
         <v>1.4319999999999999</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L81" s="10">
+      <c r="K81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="9">
         <f>1-0.55</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="10" t="s">
         <v>114</v>
       </c>
       <c r="N81" t="s">
@@ -3621,41 +3618,41 @@
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>0.27189999999999998</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>1</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>88</v>
       </c>
-      <c r="G84" s="13">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
         <v>1.8260000000000001</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84" s="9">
         <f>1-0.14</f>
         <v>0.86</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="10" t="s">
         <v>63</v>
       </c>
       <c r="N84" t="s">
@@ -3663,38 +3660,38 @@
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>0.32129999999999997</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="14">
         <v>6</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="5">
         <v>77</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="12">
         <v>5.91E-2</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="14">
         <v>6</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="5">
         <v>65</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="7">
         <v>1.6890000000000001</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85" s="9">
         <f>1-0.34</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="10" t="s">
         <v>64</v>
       </c>
       <c r="N85" t="s">
@@ -3702,38 +3699,38 @@
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C86" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="8">
+      <c r="C86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="7">
         <v>0.33500000000000002</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="11">
         <v>15</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>160</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <v>1.2615000000000001</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <v>16</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="5">
         <v>160</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="7">
         <v>1.7869999999999999</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K86" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L86" s="9">
         <f>1-0.55</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="10" t="s">
         <v>65</v>
       </c>
       <c r="N86" t="s">
@@ -3741,38 +3738,38 @@
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="13">
-        <v>0</v>
-      </c>
-      <c r="E87" s="15">
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
         <v>160</v>
       </c>
-      <c r="G87" s="13">
-        <v>0</v>
-      </c>
-      <c r="H87" s="15">
-        <v>0</v>
-      </c>
-      <c r="I87" s="6">
+      <c r="G87" s="12">
+        <v>0</v>
+      </c>
+      <c r="H87" s="14">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5">
         <v>158</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="7">
         <v>1.5429999999999999</v>
       </c>
-      <c r="K87" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L87" s="10">
+      <c r="K87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" s="9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="10" t="s">
         <v>115</v>
       </c>
       <c r="N87" t="s">
@@ -3780,38 +3777,38 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="12">
         <v>-0.27700000000000002</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>1</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>159</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="14">
         <v>2</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88" s="5">
         <v>156</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="7">
         <v>1.373</v>
       </c>
-      <c r="K88" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L88" s="10">
+      <c r="K88" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="9">
         <f>1-0.57</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="10" t="s">
         <v>141</v>
       </c>
       <c r="N88" t="s">
@@ -3819,38 +3816,38 @@
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="13">
-        <v>0</v>
-      </c>
-      <c r="E89" s="15">
-        <v>0</v>
-      </c>
-      <c r="F89" s="6">
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5">
         <v>160</v>
       </c>
-      <c r="G89" s="13">
-        <v>0</v>
-      </c>
-      <c r="H89" s="15">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6">
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
         <v>160</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="7">
         <v>1.8380000000000001</v>
       </c>
-      <c r="K89" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L89" s="10">
+      <c r="K89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" s="9">
         <f>1-0.29</f>
         <v>0.71</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="10" t="s">
         <v>142</v>
       </c>
       <c r="N89" t="s">
@@ -3858,38 +3855,38 @@
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>0.435</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>3</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <v>86</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="13">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="14">
         <v>1</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="5">
         <v>73</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="7">
         <v>1.4690000000000001</v>
       </c>
-      <c r="K90" s="6" t="s">
+      <c r="K90" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L90" s="10">
+      <c r="L90" s="9">
         <f>1-0.82</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="10" t="s">
         <v>143</v>
       </c>
       <c r="N90" t="s">
@@ -3908,41 +3905,41 @@
       </c>
     </row>
     <row r="93" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="12">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>36</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>150</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="12">
         <v>-0.187</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="8">
         <v>32</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="5">
         <v>123</v>
       </c>
-      <c r="J93" s="14">
+      <c r="J93" s="13">
         <v>2.831</v>
       </c>
-      <c r="K93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L93" s="10">
+      <c r="K93" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L93" s="9">
         <f>1-0.3</f>
         <v>0.7</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="10" t="s">
         <v>66</v>
       </c>
       <c r="N93" t="s">
@@ -3950,38 +3947,38 @@
       </c>
     </row>
     <row r="94" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>0.36580000000000001</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="14">
         <v>10</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>150</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="7">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="14">
         <v>3</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="5">
         <v>123</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="12">
         <v>4.2569999999999997</v>
       </c>
-      <c r="K94" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L94" s="10">
+      <c r="K94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L94" s="9">
         <f>1-0.08</f>
         <v>0.92</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="10" t="s">
         <v>67</v>
       </c>
       <c r="N94" t="s">
@@ -3989,38 +3986,38 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="8">
+      <c r="C95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="7">
         <v>1.246</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="11">
         <v>14</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>338</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="12">
         <v>-0.248</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>10</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="5">
         <v>293</v>
       </c>
-      <c r="J95" s="14">
+      <c r="J95" s="13">
         <v>2.8420000000000001</v>
       </c>
-      <c r="K95" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L95" s="10">
+      <c r="K95" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" s="9">
         <f>1-0.23</f>
         <v>0.77</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="10" t="s">
         <v>68</v>
       </c>
       <c r="N95" t="s">
@@ -4028,38 +4025,38 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>0.1857</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="11">
         <v>16</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>269</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="7">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H96" s="15">
+      <c r="H96" s="14">
         <v>1</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="5">
         <v>231</v>
       </c>
-      <c r="J96" s="14">
+      <c r="J96" s="13">
         <v>2.395</v>
       </c>
-      <c r="K96" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L96" s="10">
+      <c r="K96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" s="9">
         <f>1-0.97</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="10" t="s">
         <v>116</v>
       </c>
       <c r="N96" t="s">
@@ -4067,38 +4064,38 @@
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="13">
-        <v>0</v>
-      </c>
-      <c r="E97" s="15">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="14">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
         <v>774</v>
       </c>
-      <c r="G97" s="13">
-        <v>0</v>
-      </c>
-      <c r="H97" s="15">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <v>0</v>
+      </c>
+      <c r="I97" s="5">
         <v>756</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="12">
         <v>3.2770000000000001</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="K97" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L97" s="10">
+      <c r="L97" s="9">
         <f>1-0.21</f>
         <v>0.79</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="10" t="s">
         <v>117</v>
       </c>
       <c r="N97" t="s">
@@ -4106,38 +4103,38 @@
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>65</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>774</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="7">
         <v>0.89900000000000002</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="11">
         <v>18</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="5">
         <v>756</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="12">
         <v>3.226</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L98" s="10">
+      <c r="L98" s="9">
         <f>1-0.88</f>
         <v>0.12</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="10" t="s">
         <v>69</v>
       </c>
       <c r="N98" t="s">
@@ -4145,38 +4142,38 @@
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <v>0.34899999999999998</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="14">
         <v>6</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>181</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="13">
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="8">
         <v>23</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="5">
         <v>143</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="12">
         <v>3.9809999999999999</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L99" s="10">
+      <c r="K99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" s="9">
         <f>1-0.77</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="10" t="s">
         <v>118</v>
       </c>
       <c r="N99" t="s">
@@ -4194,41 +4191,41 @@
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="7">
         <v>0.39140000000000003</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="14">
         <v>6</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="5">
         <v>25</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="12">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="14">
         <v>6</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="5">
         <v>24</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="12">
         <v>7.1950000000000003</v>
       </c>
-      <c r="K102" s="6" t="s">
+      <c r="K102" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L102" s="10">
+      <c r="L102" s="9">
         <f>1-0.09</f>
         <v>0.91</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="10" t="s">
         <v>119</v>
       </c>
       <c r="N102" t="s">
@@ -4236,38 +4233,38 @@
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="14">
         <v>7</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="5">
         <v>11</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="14">
         <v>7</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I103" s="5">
         <v>11</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="7">
         <v>1.6559999999999999</v>
       </c>
-      <c r="K103" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L103" s="10">
+      <c r="K103" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" s="9">
         <f>1-0.52</f>
         <v>0.48</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="10" t="s">
         <v>120</v>
       </c>
       <c r="N103" t="s">
@@ -4275,38 +4272,38 @@
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="14">
+      <c r="C104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="13">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="14">
         <v>2</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>25</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="12">
         <v>-0.04</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="14">
         <v>4</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104" s="5">
         <v>24</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="12">
         <v>3.7229999999999999</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L104" s="10">
+      <c r="K104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L104" s="9">
         <f>1-0.16</f>
         <v>0.84</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="10" t="s">
         <v>70</v>
       </c>
       <c r="N104" t="s">
@@ -4314,38 +4311,38 @@
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D105" s="13">
-        <v>0</v>
-      </c>
-      <c r="E105" s="15">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
+      <c r="D105" s="12">
+        <v>0</v>
+      </c>
+      <c r="E105" s="14">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
         <v>25</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="12">
         <v>-1.2E-2</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="14">
         <v>1</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="5">
         <v>24</v>
       </c>
-      <c r="J105" s="14">
+      <c r="J105" s="13">
         <v>2.7949999999999999</v>
       </c>
-      <c r="K105" s="6" t="s">
+      <c r="K105" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L105" s="10">
+      <c r="L105" s="9">
         <f>1-0.61</f>
         <v>0.39</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="10" t="s">
         <v>71</v>
       </c>
       <c r="N105" t="s">
@@ -4353,38 +4350,38 @@
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>0.98</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="14">
         <v>1</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>25</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="12">
         <v>-0.223</v>
       </c>
-      <c r="H106" s="15">
+      <c r="H106" s="14">
         <v>3</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106" s="5">
         <v>24</v>
       </c>
-      <c r="J106" s="8">
+      <c r="J106" s="7">
         <v>1.363</v>
       </c>
-      <c r="K106" s="6" t="s">
+      <c r="K106" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L106" s="10">
+      <c r="L106" s="9">
         <f>1-0.72</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="10" t="s">
         <v>72</v>
       </c>
       <c r="N106" t="s">
@@ -4392,38 +4389,38 @@
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="13">
-        <v>0</v>
-      </c>
-      <c r="E107" s="15">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
         <v>25</v>
       </c>
-      <c r="G107" s="13">
-        <v>0</v>
-      </c>
-      <c r="H107" s="15">
-        <v>0</v>
-      </c>
-      <c r="I107" s="6">
+      <c r="G107" s="12">
+        <v>0</v>
+      </c>
+      <c r="H107" s="14">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
         <v>24</v>
       </c>
-      <c r="J107" s="14">
+      <c r="J107" s="13">
         <v>2.7240000000000002</v>
       </c>
-      <c r="K107" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L107" s="10">
+      <c r="K107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107" s="9">
         <f>1-0.38</f>
         <v>0.62</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="10" t="s">
         <v>73</v>
       </c>
       <c r="N107" t="s">
@@ -4431,38 +4428,38 @@
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="13">
-        <v>0</v>
-      </c>
-      <c r="E108" s="15">
-        <v>0</v>
-      </c>
-      <c r="F108" s="6">
+      <c r="D108" s="12">
+        <v>0</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
         <v>25</v>
       </c>
-      <c r="G108" s="13">
-        <v>0</v>
-      </c>
-      <c r="H108" s="15">
-        <v>0</v>
-      </c>
-      <c r="I108" s="6">
+      <c r="G108" s="12">
+        <v>0</v>
+      </c>
+      <c r="H108" s="14">
+        <v>0</v>
+      </c>
+      <c r="I108" s="5">
         <v>24</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="12">
         <v>3.4809999999999999</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="K108" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L108" s="10">
+      <c r="L108" s="9">
         <f>1-0.02</f>
         <v>0.98</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="10" t="s">
         <v>74</v>
       </c>
       <c r="N108" t="s">
@@ -4480,41 +4477,41 @@
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="12">
         <v>-1.2E-2</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>162</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>163</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="12">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="H111" s="9">
+      <c r="H111" s="8">
         <v>155</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="5">
         <v>158</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="7">
         <v>1.8129999999999999</v>
       </c>
-      <c r="K111" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L111" s="10">
+      <c r="K111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" s="9">
         <f>1-0.99</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="10" t="s">
         <v>75</v>
       </c>
       <c r="N111" t="s">
@@ -4522,38 +4519,38 @@
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="12">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>162</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <v>162</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G112" s="12">
         <v>-0.38</v>
       </c>
-      <c r="H112" s="9">
+      <c r="H112" s="8">
         <v>155</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="5">
         <v>156</v>
       </c>
-      <c r="J112" s="14">
+      <c r="J112" s="13">
         <v>2.0579999999999998</v>
       </c>
-      <c r="K112" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L112" s="10">
+      <c r="K112" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="9">
         <f>1-0.99</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="10" t="s">
         <v>135</v>
       </c>
       <c r="N112" t="s">
@@ -4561,38 +4558,38 @@
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C113" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="13">
+      <c r="C113" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="12">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>48</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="5">
         <v>178</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="7">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H113" s="9">
+      <c r="H113" s="8">
         <v>65</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="5">
         <v>174</v>
       </c>
-      <c r="J113" s="8">
+      <c r="J113" s="7">
         <v>1.357</v>
       </c>
-      <c r="K113" s="6" t="s">
+      <c r="K113" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L113" s="10">
+      <c r="L113" s="9">
         <f>1-0.97</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="10" t="s">
         <v>76</v>
       </c>
       <c r="N113" t="s">
@@ -4600,38 +4597,38 @@
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="13">
-        <v>0</v>
-      </c>
-      <c r="E114" s="15">
-        <v>0</v>
-      </c>
-      <c r="F114" s="6">
+      <c r="D114" s="12">
+        <v>0</v>
+      </c>
+      <c r="E114" s="14">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5">
         <v>166</v>
       </c>
-      <c r="G114" s="13">
-        <v>0</v>
-      </c>
-      <c r="H114" s="15">
-        <v>0</v>
-      </c>
-      <c r="I114" s="6">
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
+      <c r="H114" s="14">
+        <v>0</v>
+      </c>
+      <c r="I114" s="5">
         <v>162</v>
       </c>
-      <c r="J114" s="8">
+      <c r="J114" s="7">
         <v>1.3149999999999999</v>
       </c>
-      <c r="K114" s="6" t="s">
+      <c r="K114" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L114" s="10">
+      <c r="L114" s="9">
         <f>1-0.55</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="10" t="s">
         <v>77</v>
       </c>
       <c r="N114" t="s">
@@ -4639,38 +4636,38 @@
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="7">
         <v>0.35299999999999998</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="14">
         <v>1</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="5">
         <v>167</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="12">
         <v>-1.0109999999999999</v>
       </c>
-      <c r="H115" s="15">
+      <c r="H115" s="14">
         <v>1</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I115" s="5">
         <v>163</v>
       </c>
-      <c r="J115" s="8">
+      <c r="J115" s="7">
         <v>1.256</v>
       </c>
-      <c r="K115" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L115" s="10">
+      <c r="K115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L115" s="9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="10" t="s">
         <v>78</v>
       </c>
       <c r="N115" t="s">
@@ -4678,38 +4675,38 @@
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="12">
         <v>-1.2789999999999999</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="14">
         <v>3</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <v>163</v>
       </c>
-      <c r="G116" s="13">
+      <c r="G116" s="12">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H116" s="15">
+      <c r="H116" s="14">
         <v>1</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="5">
         <v>158</v>
       </c>
-      <c r="J116" s="8">
+      <c r="J116" s="7">
         <v>1.5329999999999999</v>
       </c>
-      <c r="K116" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L116" s="10">
+      <c r="K116" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L116" s="9">
         <f>1-0.49</f>
         <v>0.51</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="10" t="s">
         <v>136</v>
       </c>
       <c r="N116" t="s">
@@ -4717,38 +4714,38 @@
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="13">
-        <v>0</v>
-      </c>
-      <c r="E117" s="15">
-        <v>0</v>
-      </c>
-      <c r="F117" s="6">
+      <c r="D117" s="12">
+        <v>0</v>
+      </c>
+      <c r="E117" s="14">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
         <v>162</v>
       </c>
-      <c r="G117" s="13">
-        <v>0</v>
-      </c>
-      <c r="H117" s="15">
-        <v>0</v>
-      </c>
-      <c r="I117" s="6">
-        <v>157</v>
-      </c>
-      <c r="J117" s="8">
+      <c r="G117" s="12">
+        <v>0</v>
+      </c>
+      <c r="H117" s="14">
+        <v>0</v>
+      </c>
+      <c r="I117" s="5">
+        <v>157</v>
+      </c>
+      <c r="J117" s="7">
         <v>1.3120000000000001</v>
       </c>
-      <c r="K117" s="6" t="s">
+      <c r="K117" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L117" s="10">
+      <c r="L117" s="9">
         <f>1-0.05</f>
         <v>0.95</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="10" t="s">
         <v>79</v>
       </c>
       <c r="N117" t="s">
@@ -4766,41 +4763,41 @@
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="7">
         <v>0.32</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="14">
         <v>4</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="5">
         <v>37</v>
       </c>
-      <c r="G120" s="14">
+      <c r="G120" s="13">
         <v>0.11260000000000001</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H120" s="14">
         <v>2</v>
       </c>
-      <c r="I120" s="6">
+      <c r="I120" s="5">
         <v>26</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="7">
         <v>1.6879999999999999</v>
       </c>
-      <c r="K120" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L120" s="10">
+      <c r="K120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" s="9">
         <f>1-0.39</f>
         <v>0.61</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="10" t="s">
         <v>80</v>
       </c>
       <c r="N120" t="s">
@@ -4808,38 +4805,38 @@
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="14">
+      <c r="D121" s="13">
         <v>0.13200000000000001</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="11">
         <v>11</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="5">
         <v>37</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="7">
         <v>0.39200000000000002</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="11">
         <v>11</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I121" s="5">
         <v>26</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="13">
         <v>2.5139999999999998</v>
       </c>
-      <c r="K121" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L121" s="10">
+      <c r="K121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L121" s="9">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="10" t="s">
         <v>81</v>
       </c>
       <c r="N121" t="s">
@@ -4847,38 +4844,38 @@
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="13">
-        <v>0</v>
-      </c>
-      <c r="E122" s="15">
-        <v>0</v>
-      </c>
-      <c r="F122" s="6">
+      <c r="C122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0</v>
+      </c>
+      <c r="E122" s="14">
+        <v>0</v>
+      </c>
+      <c r="F122" s="5">
         <v>166</v>
       </c>
-      <c r="G122" s="13">
-        <v>0</v>
-      </c>
-      <c r="H122" s="15">
-        <v>0</v>
-      </c>
-      <c r="I122" s="6">
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+      <c r="H122" s="14">
+        <v>0</v>
+      </c>
+      <c r="I122" s="5">
         <v>166</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="13">
         <v>2.3719999999999999</v>
       </c>
-      <c r="K122" s="6" t="s">
+      <c r="K122" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L122" s="10">
+      <c r="L122" s="9">
         <f>1-0.76</f>
         <v>0.24</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="10" t="s">
         <v>82</v>
       </c>
       <c r="N122" t="s">
@@ -4886,38 +4883,38 @@
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D123" s="13">
-        <v>0</v>
-      </c>
-      <c r="E123" s="15">
-        <v>0</v>
-      </c>
-      <c r="F123" s="6">
+      <c r="D123" s="12">
+        <v>0</v>
+      </c>
+      <c r="E123" s="14">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
         <v>166</v>
       </c>
-      <c r="G123" s="13">
-        <v>0</v>
-      </c>
-      <c r="H123" s="15">
-        <v>0</v>
-      </c>
-      <c r="I123" s="6">
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>0</v>
+      </c>
+      <c r="I123" s="5">
         <v>166</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="7">
         <v>1.8009999999999999</v>
       </c>
-      <c r="K123" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L123" s="10">
+      <c r="K123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" s="9">
         <f>1-0.36</f>
         <v>0.64</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="10" t="s">
         <v>121</v>
       </c>
       <c r="N123" t="s">
@@ -4925,38 +4922,38 @@
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="13">
-        <v>0</v>
-      </c>
-      <c r="E124" s="15">
-        <v>0</v>
-      </c>
-      <c r="F124" s="6">
+      <c r="D124" s="12">
+        <v>0</v>
+      </c>
+      <c r="E124" s="14">
+        <v>0</v>
+      </c>
+      <c r="F124" s="5">
         <v>139</v>
       </c>
-      <c r="G124" s="13">
-        <v>0</v>
-      </c>
-      <c r="H124" s="15">
-        <v>0</v>
-      </c>
-      <c r="I124" s="6">
+      <c r="G124" s="12">
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <v>0</v>
+      </c>
+      <c r="I124" s="5">
         <v>129</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="13">
         <v>2.0750000000000002</v>
       </c>
-      <c r="K124" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L124" s="10">
+      <c r="K124" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="9">
         <f>1-0.71</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="10" t="s">
         <v>144</v>
       </c>
       <c r="N124" t="s">
@@ -4964,38 +4961,38 @@
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="7">
         <v>1.6397699999999999</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="14">
         <v>8</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="5">
         <v>166</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="7">
         <v>1.5189999999999999</v>
       </c>
-      <c r="H125" s="15">
+      <c r="H125" s="14">
         <v>1</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="5">
         <v>166</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="7">
         <v>1.9670000000000001</v>
       </c>
-      <c r="K125" s="6" t="s">
+      <c r="K125" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L125" s="10">
+      <c r="L125" s="9">
         <f>1-0.54</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="M125" s="11" t="s">
+      <c r="M125" s="10" t="s">
         <v>122</v>
       </c>
       <c r="N125" t="s">
@@ -5003,38 +5000,38 @@
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="7">
         <v>0.86650000000000005</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="11">
         <v>12</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="5">
         <v>165</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="7">
         <v>0.8135</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="11">
         <v>14</v>
       </c>
-      <c r="I126" s="6">
+      <c r="I126" s="5">
         <v>162</v>
       </c>
-      <c r="J126" s="13">
+      <c r="J126" s="12">
         <v>3.0819999999999999</v>
       </c>
-      <c r="K126" s="6" t="s">
+      <c r="K126" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L126" s="10">
+      <c r="L126" s="9">
         <f>1-0.66</f>
         <v>0.33999999999999997</v>
       </c>
-      <c r="M126" s="11" t="s">
+      <c r="M126" s="10" t="s">
         <v>83</v>
       </c>
       <c r="N126" t="s">
@@ -5052,41 +5049,41 @@
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="7">
         <v>0.32300000000000001</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="14">
         <v>6</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="5">
         <v>53</v>
       </c>
-      <c r="G129" s="13">
+      <c r="G129" s="12">
         <v>-0.58299999999999996</v>
       </c>
-      <c r="H129" s="15">
+      <c r="H129" s="14">
         <v>8</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I129" s="5">
         <v>52</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="7">
         <v>1.869</v>
       </c>
-      <c r="K129" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L129" s="10">
+      <c r="K129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L129" s="9">
         <f>1-0.32</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="M129" s="11" t="s">
+      <c r="M129" s="10" t="s">
         <v>84</v>
       </c>
       <c r="N129" t="s">
@@ -5094,38 +5091,38 @@
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="14">
+      <c r="D130" s="13">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="11">
         <v>20</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="5">
         <v>68</v>
       </c>
-      <c r="G130" s="13">
+      <c r="G130" s="12">
         <v>0.106</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H130" s="8">
         <v>22</v>
       </c>
-      <c r="I130" s="6">
+      <c r="I130" s="5">
         <v>67</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="7">
         <v>1.6439999999999999</v>
       </c>
-      <c r="K130" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L130" s="10">
+      <c r="K130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L130" s="9">
         <f>1-0.37</f>
         <v>0.63</v>
       </c>
-      <c r="M130" s="11" t="s">
+      <c r="M130" s="10" t="s">
         <v>123</v>
       </c>
       <c r="N130" t="s">
@@ -5133,38 +5130,38 @@
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C131" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="13">
-        <v>0</v>
-      </c>
-      <c r="E131" s="15">
-        <v>0</v>
-      </c>
-      <c r="F131" s="6">
+      <c r="C131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131" s="14">
+        <v>0</v>
+      </c>
+      <c r="F131" s="5">
         <v>51</v>
       </c>
-      <c r="G131" s="13">
-        <v>0</v>
-      </c>
-      <c r="H131" s="15">
-        <v>0</v>
-      </c>
-      <c r="I131" s="6">
+      <c r="G131" s="12">
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>0</v>
+      </c>
+      <c r="I131" s="5">
         <v>46</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J131" s="7">
         <v>1.395</v>
       </c>
-      <c r="K131" s="6" t="s">
+      <c r="K131" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L131" s="10">
+      <c r="L131" s="9">
         <f>1-0.95</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M131" s="11" t="s">
+      <c r="M131" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N131" t="s">
@@ -5172,38 +5169,38 @@
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D132" s="13">
-        <v>0</v>
-      </c>
-      <c r="E132" s="15">
-        <v>0</v>
-      </c>
-      <c r="F132" s="6">
+      <c r="D132" s="12">
+        <v>0</v>
+      </c>
+      <c r="E132" s="14">
+        <v>0</v>
+      </c>
+      <c r="F132" s="5">
         <v>47</v>
       </c>
-      <c r="G132" s="13">
-        <v>0</v>
-      </c>
-      <c r="H132" s="15">
-        <v>0</v>
-      </c>
-      <c r="I132" s="6">
+      <c r="G132" s="12">
+        <v>0</v>
+      </c>
+      <c r="H132" s="14">
+        <v>0</v>
+      </c>
+      <c r="I132" s="5">
         <v>42</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="7">
         <v>1.3620000000000001</v>
       </c>
-      <c r="K132" s="6" t="s">
+      <c r="K132" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L132" s="10">
+      <c r="L132" s="9">
         <f>1-0.57</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="M132" s="11" t="s">
+      <c r="M132" s="10" t="s">
         <v>146</v>
       </c>
       <c r="N132" t="s">
@@ -5211,38 +5208,38 @@
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="13">
+      <c r="D133" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E133" s="15">
+      <c r="E133" s="14">
         <v>7</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="5">
         <v>68</v>
       </c>
-      <c r="G133" s="13">
+      <c r="G133" s="12">
         <v>-0.188</v>
       </c>
-      <c r="H133" s="15">
+      <c r="H133" s="14">
         <v>2</v>
       </c>
-      <c r="I133" s="6">
+      <c r="I133" s="5">
         <v>67</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="7">
         <v>1.3089999999999999</v>
       </c>
-      <c r="K133" s="6" t="s">
+      <c r="K133" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L133" s="10">
+      <c r="L133" s="9">
         <f>1-0.97</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M133" s="11" t="s">
+      <c r="M133" s="10" t="s">
         <v>124</v>
       </c>
       <c r="N133" t="s">
@@ -5250,38 +5247,38 @@
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="13">
-        <v>0</v>
-      </c>
-      <c r="E134" s="15">
-        <v>0</v>
-      </c>
-      <c r="F134" s="6">
+      <c r="D134" s="12">
+        <v>0</v>
+      </c>
+      <c r="E134" s="14">
+        <v>0</v>
+      </c>
+      <c r="F134" s="5">
         <v>68</v>
       </c>
-      <c r="G134" s="13">
-        <v>0</v>
-      </c>
-      <c r="H134" s="15">
-        <v>0</v>
-      </c>
-      <c r="I134" s="6">
+      <c r="G134" s="12">
+        <v>0</v>
+      </c>
+      <c r="H134" s="14">
+        <v>0</v>
+      </c>
+      <c r="I134" s="5">
         <v>67</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="7">
         <v>1.367</v>
       </c>
-      <c r="K134" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L134" s="10">
+      <c r="K134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L134" s="9">
         <f>1-0.38</f>
         <v>0.62</v>
       </c>
-      <c r="M134" s="11" t="s">
+      <c r="M134" s="10" t="s">
         <v>125</v>
       </c>
       <c r="N134" t="s">
@@ -5289,38 +5286,38 @@
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="13">
-        <v>0</v>
-      </c>
-      <c r="E135" s="15">
-        <v>0</v>
-      </c>
-      <c r="F135" s="6">
+      <c r="D135" s="12">
+        <v>0</v>
+      </c>
+      <c r="E135" s="14">
+        <v>0</v>
+      </c>
+      <c r="F135" s="5">
         <v>68</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H135" s="15">
+      <c r="H135" s="14">
         <v>5</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I135" s="5">
         <v>67</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="7">
         <v>1.3089999999999999</v>
       </c>
-      <c r="K135" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L135" s="10">
+      <c r="K135" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L135" s="9">
         <f>1-0.93</f>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="M135" s="11" t="s">
+      <c r="M135" s="10" t="s">
         <v>126</v>
       </c>
       <c r="N135" t="s">
@@ -5338,41 +5335,41 @@
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="13">
-        <v>0</v>
-      </c>
-      <c r="E138" s="15">
-        <v>0</v>
-      </c>
-      <c r="F138" s="6">
+      <c r="D138" s="12">
+        <v>0</v>
+      </c>
+      <c r="E138" s="14">
+        <v>0</v>
+      </c>
+      <c r="F138" s="5">
         <v>13</v>
       </c>
-      <c r="G138" s="13">
-        <v>0</v>
-      </c>
-      <c r="H138" s="15">
-        <v>0</v>
-      </c>
-      <c r="I138" s="6">
+      <c r="G138" s="12">
+        <v>0</v>
+      </c>
+      <c r="H138" s="14">
+        <v>0</v>
+      </c>
+      <c r="I138" s="5">
         <v>2</v>
       </c>
-      <c r="J138" s="8">
+      <c r="J138" s="7">
         <v>1.0129999999999999</v>
       </c>
-      <c r="K138" s="6" t="s">
+      <c r="K138" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L138" s="10">
+      <c r="L138" s="9">
         <f>1-0.32</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="M138" s="11" t="s">
+      <c r="M138" s="10" t="s">
         <v>137</v>
       </c>
       <c r="N138" t="s">
@@ -5380,38 +5377,38 @@
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="13">
-        <v>0</v>
-      </c>
-      <c r="E139" s="15">
-        <v>0</v>
-      </c>
-      <c r="F139" s="6">
+      <c r="D139" s="12">
+        <v>0</v>
+      </c>
+      <c r="E139" s="14">
+        <v>0</v>
+      </c>
+      <c r="F139" s="5">
         <v>13</v>
       </c>
-      <c r="G139" s="13">
-        <v>0</v>
-      </c>
-      <c r="H139" s="15">
-        <v>0</v>
-      </c>
-      <c r="I139" s="6">
+      <c r="G139" s="12">
+        <v>0</v>
+      </c>
+      <c r="H139" s="14">
+        <v>0</v>
+      </c>
+      <c r="I139" s="5">
         <v>2</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="7">
         <v>1.042</v>
       </c>
-      <c r="K139" s="6" t="s">
+      <c r="K139" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L139" s="10">
+      <c r="L139" s="9">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
-      <c r="M139" s="11" t="s">
+      <c r="M139" s="10" t="s">
         <v>85</v>
       </c>
       <c r="N139" t="s">
@@ -5419,38 +5416,38 @@
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C140" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" s="13">
-        <v>0</v>
-      </c>
-      <c r="E140" s="15">
-        <v>0</v>
-      </c>
-      <c r="F140" s="6">
+      <c r="C140" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140" s="14">
+        <v>0</v>
+      </c>
+      <c r="F140" s="5">
         <v>9</v>
       </c>
-      <c r="G140" s="13">
-        <v>0</v>
-      </c>
-      <c r="H140" s="15">
-        <v>0</v>
-      </c>
-      <c r="I140" s="6">
+      <c r="G140" s="12">
+        <v>0</v>
+      </c>
+      <c r="H140" s="14">
+        <v>0</v>
+      </c>
+      <c r="I140" s="5">
         <v>1</v>
       </c>
-      <c r="J140" s="8">
+      <c r="J140" s="7">
         <v>1.0249999999999999</v>
       </c>
-      <c r="K140" s="6" t="s">
+      <c r="K140" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L140" s="10">
+      <c r="L140" s="9">
         <f>1-0.3</f>
         <v>0.7</v>
       </c>
-      <c r="M140" s="11" t="s">
+      <c r="M140" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N140" t="s">
@@ -5458,38 +5455,38 @@
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="13">
-        <v>0</v>
-      </c>
-      <c r="E141" s="15">
-        <v>0</v>
-      </c>
-      <c r="F141" s="6">
+      <c r="D141" s="12">
+        <v>0</v>
+      </c>
+      <c r="E141" s="14">
+        <v>0</v>
+      </c>
+      <c r="F141" s="5">
         <v>13</v>
       </c>
-      <c r="G141" s="13">
-        <v>0</v>
-      </c>
-      <c r="H141" s="15">
-        <v>0</v>
-      </c>
-      <c r="I141" s="6">
+      <c r="G141" s="12">
+        <v>0</v>
+      </c>
+      <c r="H141" s="14">
+        <v>0</v>
+      </c>
+      <c r="I141" s="5">
         <v>2</v>
       </c>
-      <c r="J141" s="8">
+      <c r="J141" s="7">
         <v>1.0229999999999999</v>
       </c>
-      <c r="K141" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L141" s="10">
+      <c r="K141" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L141" s="9">
         <f>1-0.3</f>
         <v>0.7</v>
       </c>
-      <c r="M141" s="11" t="s">
+      <c r="M141" s="10" t="s">
         <v>127</v>
       </c>
       <c r="N141" t="s">
@@ -5497,38 +5494,38 @@
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="13">
-        <v>0</v>
-      </c>
-      <c r="E142" s="15">
-        <v>0</v>
-      </c>
-      <c r="F142" s="6">
+      <c r="D142" s="12">
+        <v>0</v>
+      </c>
+      <c r="E142" s="14">
+        <v>0</v>
+      </c>
+      <c r="F142" s="5">
         <v>13</v>
       </c>
-      <c r="G142" s="13">
-        <v>0</v>
-      </c>
-      <c r="H142" s="15">
-        <v>0</v>
-      </c>
-      <c r="I142" s="6">
+      <c r="G142" s="12">
+        <v>0</v>
+      </c>
+      <c r="H142" s="14">
+        <v>0</v>
+      </c>
+      <c r="I142" s="5">
         <v>2</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="7">
         <v>1.018</v>
       </c>
-      <c r="K142" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L142" s="10">
+      <c r="K142" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L142" s="9">
         <f>1-0.91</f>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="M142" s="11" t="s">
+      <c r="M142" s="10" t="s">
         <v>87</v>
       </c>
       <c r="N142" t="s">
@@ -5536,38 +5533,38 @@
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="13">
-        <v>0</v>
-      </c>
-      <c r="E143" s="15">
-        <v>0</v>
-      </c>
-      <c r="F143" s="6">
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+      <c r="E143" s="14">
+        <v>0</v>
+      </c>
+      <c r="F143" s="5">
         <v>13</v>
       </c>
-      <c r="G143" s="13">
-        <v>0</v>
-      </c>
-      <c r="H143" s="15">
-        <v>0</v>
-      </c>
-      <c r="I143" s="6">
+      <c r="G143" s="12">
+        <v>0</v>
+      </c>
+      <c r="H143" s="14">
+        <v>0</v>
+      </c>
+      <c r="I143" s="5">
         <v>2</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="7">
         <v>1.026</v>
       </c>
-      <c r="K143" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L143" s="10">
+      <c r="K143" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L143" s="9">
         <f>1-0.64</f>
         <v>0.36</v>
       </c>
-      <c r="M143" s="11" t="s">
+      <c r="M143" s="10" t="s">
         <v>88</v>
       </c>
       <c r="N143" t="s">
@@ -5575,38 +5572,38 @@
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="13">
-        <v>0</v>
-      </c>
-      <c r="E144" s="15">
-        <v>0</v>
-      </c>
-      <c r="F144" s="6">
+      <c r="D144" s="12">
+        <v>0</v>
+      </c>
+      <c r="E144" s="14">
+        <v>0</v>
+      </c>
+      <c r="F144" s="5">
         <v>13</v>
       </c>
-      <c r="G144" s="13">
-        <v>0</v>
-      </c>
-      <c r="H144" s="15">
-        <v>0</v>
-      </c>
-      <c r="I144" s="6">
+      <c r="G144" s="12">
+        <v>0</v>
+      </c>
+      <c r="H144" s="14">
+        <v>0</v>
+      </c>
+      <c r="I144" s="5">
         <v>2</v>
       </c>
-      <c r="J144" s="8">
+      <c r="J144" s="7">
         <v>1.018</v>
       </c>
-      <c r="K144" s="6" t="s">
+      <c r="K144" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L144" s="10">
+      <c r="L144" s="9">
         <f>1-0.86</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="M144" s="11" t="s">
+      <c r="M144" s="10" t="s">
         <v>147</v>
       </c>
       <c r="N144" t="s">
@@ -5624,41 +5621,41 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D147" s="12">
         <v>-2E-3</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="8">
         <v>380</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="5">
         <v>1270</v>
       </c>
-      <c r="G147" s="13">
+      <c r="G147" s="12">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="H147" s="9">
+      <c r="H147" s="8">
         <v>247</v>
       </c>
-      <c r="I147" s="6">
+      <c r="I147" s="5">
         <v>1072</v>
       </c>
-      <c r="J147" s="13">
+      <c r="J147" s="12">
         <v>8.3629999999999995</v>
       </c>
-      <c r="K147" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L147" s="10">
+      <c r="K147" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" s="9">
         <f>1-0.18</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="M147" s="11" t="s">
+      <c r="M147" s="10" t="s">
         <v>128</v>
       </c>
       <c r="N147" t="s">
@@ -5666,38 +5663,38 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="7">
         <v>0.34160000000000001</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="8">
         <v>30</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="5">
         <v>832</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="7">
         <v>0.433</v>
       </c>
-      <c r="H148" s="12">
+      <c r="H148" s="11">
         <v>18</v>
       </c>
-      <c r="I148" s="6">
+      <c r="I148" s="5">
         <v>651</v>
       </c>
-      <c r="J148" s="13">
+      <c r="J148" s="12">
         <v>3.8109999999999999</v>
       </c>
-      <c r="K148" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L148" s="10">
+      <c r="K148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L148" s="9">
         <f>1-0.08</f>
         <v>0.92</v>
       </c>
-      <c r="M148" s="11" t="s">
+      <c r="M148" s="10" t="s">
         <v>89</v>
       </c>
       <c r="N148" t="s">
@@ -5705,38 +5702,38 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C149" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="14">
+      <c r="C149" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="13">
         <v>0.14580000000000001</v>
       </c>
-      <c r="E149" s="9">
+      <c r="E149" s="8">
         <v>133</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="5">
         <v>3415</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="7">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H149" s="9">
+      <c r="H149" s="8">
         <v>118</v>
       </c>
-      <c r="I149" s="6">
+      <c r="I149" s="5">
         <v>3368</v>
       </c>
-      <c r="J149" s="14">
+      <c r="J149" s="13">
         <v>2.4990000000000001</v>
       </c>
-      <c r="K149" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L149" s="10">
+      <c r="K149" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L149" s="9">
         <f>1-0.31</f>
         <v>0.69</v>
       </c>
-      <c r="M149" s="11" t="s">
+      <c r="M149" s="10" t="s">
         <v>148</v>
       </c>
       <c r="N149" t="s">
@@ -5744,38 +5741,38 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D150" s="12">
         <v>-0.45</v>
       </c>
-      <c r="E150" s="15">
+      <c r="E150" s="14">
         <v>1</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="5">
         <v>2398</v>
       </c>
-      <c r="G150" s="13">
-        <v>0</v>
-      </c>
-      <c r="H150" s="15">
-        <v>0</v>
-      </c>
-      <c r="I150" s="6">
+      <c r="G150" s="12">
+        <v>0</v>
+      </c>
+      <c r="H150" s="14">
+        <v>0</v>
+      </c>
+      <c r="I150" s="5">
         <v>2245</v>
       </c>
-      <c r="J150" s="14">
+      <c r="J150" s="13">
         <v>2.7679999999999998</v>
       </c>
-      <c r="K150" s="6" t="s">
+      <c r="K150" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L150" s="10">
+      <c r="L150" s="9">
         <f>1-0.64</f>
         <v>0.36</v>
       </c>
-      <c r="M150" s="11" t="s">
+      <c r="M150" s="10" t="s">
         <v>129</v>
       </c>
       <c r="N150" t="s">
@@ -5783,38 +5780,38 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="12">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="8">
         <v>1242</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="5">
         <v>3492</v>
       </c>
-      <c r="G151" s="13">
+      <c r="G151" s="12">
         <v>2.4E-2</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151" s="8">
         <v>1065</v>
       </c>
-      <c r="I151" s="6">
+      <c r="I151" s="5">
         <v>3443</v>
       </c>
-      <c r="J151" s="14">
+      <c r="J151" s="13">
         <v>2.1890000000000001</v>
       </c>
-      <c r="K151" s="6" t="s">
+      <c r="K151" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L151" s="10">
+      <c r="L151" s="9">
         <f>1-0.96</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="M151" s="11" t="s">
+      <c r="M151" s="10" t="s">
         <v>149</v>
       </c>
       <c r="N151" t="s">
@@ -5822,38 +5819,38 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D152" s="12">
         <v>2.69E-2</v>
       </c>
-      <c r="E152" s="9">
+      <c r="E152" s="8">
         <v>1572</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="5">
         <v>3492</v>
       </c>
-      <c r="G152" s="13">
+      <c r="G152" s="12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H152" s="9">
+      <c r="H152" s="8">
         <v>1051</v>
       </c>
-      <c r="I152" s="6">
+      <c r="I152" s="5">
         <v>3443</v>
       </c>
-      <c r="J152" s="14">
+      <c r="J152" s="13">
         <v>2.6030000000000002</v>
       </c>
-      <c r="K152" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L152" s="10">
+      <c r="K152" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L152" s="9">
         <f>1-0.93</f>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="M152" s="11" t="s">
+      <c r="M152" s="10" t="s">
         <v>90</v>
       </c>
       <c r="N152" t="s">
@@ -5861,38 +5858,38 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="7">
         <v>0.19650000000000001</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="11">
         <v>17</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="5">
         <v>591</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="7">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H153" s="9">
-        <v>29</v>
-      </c>
-      <c r="I153" s="6">
+      <c r="H153" s="8">
+        <v>29</v>
+      </c>
+      <c r="I153" s="5">
         <v>436</v>
       </c>
-      <c r="J153" s="13">
+      <c r="J153" s="12">
         <v>4.2450000000000001</v>
       </c>
-      <c r="K153" s="6" t="s">
+      <c r="K153" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L153" s="10">
+      <c r="L153" s="9">
         <f>1-0.19</f>
         <v>0.81</v>
       </c>
-      <c r="M153" s="11" t="s">
+      <c r="M153" s="10" t="s">
         <v>91</v>
       </c>
       <c r="N153" t="s">
@@ -5915,7 +5912,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="N157" t="s">
@@ -5923,321 +5920,361 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>1</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="13">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="E158" s="8">
+        <v>133</v>
+      </c>
+      <c r="F158" s="5">
+        <v>3415</v>
+      </c>
+      <c r="G158" s="7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H158" s="8">
+        <v>118</v>
+      </c>
+      <c r="I158" s="5">
+        <v>3368</v>
+      </c>
+      <c r="J158" s="13">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="9">
+        <f>1-0.31</f>
+        <v>0.69</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>2</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="7">
+        <v>2.6785000000000001</v>
+      </c>
+      <c r="E159" s="11">
+        <v>15</v>
+      </c>
+      <c r="F159" s="5">
+        <v>365</v>
+      </c>
+      <c r="G159" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H159" s="11">
+        <v>17</v>
+      </c>
+      <c r="I159" s="5">
+        <v>340</v>
+      </c>
+      <c r="J159" s="13">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L159" s="9">
+        <f>1-0.43</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="M159" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>3</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="E160" s="11">
+        <v>12</v>
+      </c>
+      <c r="F160" s="5">
+        <v>165</v>
+      </c>
+      <c r="G160" s="7">
+        <v>0.8135</v>
+      </c>
+      <c r="H160" s="11">
+        <v>14</v>
+      </c>
+      <c r="I160" s="5">
+        <v>162</v>
+      </c>
+      <c r="J160" s="12">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L160" s="9">
+        <f>1-0.66</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>4</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E161" s="8">
+        <v>65</v>
+      </c>
+      <c r="F161" s="5">
+        <v>774</v>
+      </c>
+      <c r="G161" s="7">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="H161" s="11">
+        <v>18</v>
+      </c>
+      <c r="I161" s="5">
+        <v>756</v>
+      </c>
+      <c r="J161" s="12">
+        <v>3.226</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L161" s="9">
+        <f>1-0.88</f>
+        <v>0.12</v>
+      </c>
+      <c r="M161" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>5</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="E162" s="11">
+        <v>17</v>
+      </c>
+      <c r="F162" s="5">
+        <v>591</v>
+      </c>
+      <c r="G162" s="7">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H162" s="8">
+        <v>29</v>
+      </c>
+      <c r="I162" s="5">
+        <v>436</v>
+      </c>
+      <c r="J162" s="12">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L162" s="9">
+        <f>1-0.19</f>
+        <v>0.81</v>
+      </c>
+      <c r="M162" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>6</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="8">
-        <v>0.40560000000000002</v>
-      </c>
-      <c r="E158" s="9">
-        <v>24</v>
-      </c>
-      <c r="F158" s="6">
-        <v>757</v>
-      </c>
-      <c r="G158" s="8">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="H158" s="9">
+      <c r="D163" s="7">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="E163" s="8">
         <v>25</v>
       </c>
-      <c r="I158" s="6">
-        <v>756</v>
-      </c>
-      <c r="J158" s="8">
-        <v>1.228</v>
-      </c>
-      <c r="K158" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L158" s="10">
+      <c r="F163" s="5">
+        <v>766</v>
+      </c>
+      <c r="G163" s="12">
+        <v>-6.9999999999999994E-5</v>
+      </c>
+      <c r="H163" s="8">
+        <v>33</v>
+      </c>
+      <c r="I163" s="5">
+        <v>763</v>
+      </c>
+      <c r="J163" s="7">
+        <v>1.236</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L163" s="9">
         <f>1-0.75</f>
         <v>0.25</v>
       </c>
-      <c r="M158" s="11" t="s">
+      <c r="M163" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="6">
-        <v>2</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="8">
-        <v>0.86650000000000005</v>
-      </c>
-      <c r="E159" s="12">
-        <v>12</v>
-      </c>
-      <c r="F159" s="6">
-        <v>165</v>
-      </c>
-      <c r="G159" s="8">
-        <v>0.8135</v>
-      </c>
-      <c r="H159" s="12">
-        <v>14</v>
-      </c>
-      <c r="I159" s="6">
-        <v>162</v>
-      </c>
-      <c r="J159" s="13">
-        <v>3.0819999999999999</v>
-      </c>
-      <c r="K159" s="6" t="s">
+      <c r="N163" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>7</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="7">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="E164" s="8">
         <v>30</v>
       </c>
-      <c r="L159" s="10">
-        <f>1-0.66</f>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="M159" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N159" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="6">
-        <v>3</v>
-      </c>
-      <c r="B160" s="7" t="s">
+      <c r="F164" s="5">
+        <v>832</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0.433</v>
+      </c>
+      <c r="H164" s="11">
         <v>18</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D160" s="14">
-        <v>0.14580000000000001</v>
-      </c>
-      <c r="E160" s="9">
-        <v>133</v>
-      </c>
-      <c r="F160" s="6">
-        <v>3415</v>
-      </c>
-      <c r="G160" s="8">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="H160" s="9">
-        <v>118</v>
-      </c>
-      <c r="I160" s="6">
-        <v>3368</v>
-      </c>
-      <c r="J160" s="14">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="K160" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L160" s="10">
-        <f>1-0.31</f>
-        <v>0.69</v>
-      </c>
-      <c r="M160" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="N160" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="6">
-        <v>4</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D161" s="8">
-        <v>2.6785000000000001</v>
-      </c>
-      <c r="E161" s="12">
-        <v>15</v>
-      </c>
-      <c r="F161" s="6">
-        <v>365</v>
-      </c>
-      <c r="G161" s="8">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H161" s="12">
-        <v>17</v>
-      </c>
-      <c r="I161" s="6">
-        <v>340</v>
-      </c>
-      <c r="J161" s="14">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L161" s="10">
-        <f>1-0.43</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="M161" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N161" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="6">
-        <v>5</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="8">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E162" s="9">
-        <v>65</v>
-      </c>
-      <c r="F162" s="6">
-        <v>774</v>
-      </c>
-      <c r="G162" s="8">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="H162" s="12">
-        <v>18</v>
-      </c>
-      <c r="I162" s="6">
-        <v>756</v>
-      </c>
-      <c r="J162" s="13">
-        <v>3.226</v>
-      </c>
-      <c r="K162" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L162" s="10">
-        <f>1-0.88</f>
-        <v>0.12</v>
-      </c>
-      <c r="M162" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N162" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="6">
-        <v>6</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="8">
-        <v>0.34160000000000001</v>
-      </c>
-      <c r="E163" s="9">
-        <v>30</v>
-      </c>
-      <c r="F163" s="6">
-        <v>832</v>
-      </c>
-      <c r="G163" s="8">
-        <v>0.433</v>
-      </c>
-      <c r="H163" s="12">
-        <v>18</v>
-      </c>
-      <c r="I163" s="6">
+      <c r="I164" s="5">
         <v>651</v>
       </c>
-      <c r="J163" s="13">
+      <c r="J164" s="12">
         <v>3.8109999999999999</v>
       </c>
-      <c r="K163" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L163" s="10">
+      <c r="K164" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L164" s="9">
         <f>1-0.08</f>
         <v>0.92</v>
       </c>
-      <c r="M163" s="11" t="s">
+      <c r="M164" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N163" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6">
-        <v>7</v>
-      </c>
-      <c r="B164" s="7" t="s">
+      <c r="N164" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>8</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D165" s="7">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E165" s="11">
         <v>12</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F165" s="5">
         <v>217</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G165" s="7">
         <v>0.2918</v>
       </c>
-      <c r="H164" s="9">
+      <c r="H165" s="8">
         <v>22</v>
       </c>
-      <c r="I164" s="6">
+      <c r="I165" s="5">
         <v>211</v>
       </c>
-      <c r="J164" s="13">
+      <c r="J165" s="12">
         <v>4.5659999999999998</v>
       </c>
-      <c r="K164" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L164" s="10">
+      <c r="K165" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L165" s="9">
         <f>1-0.07</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="M164" s="11" t="s">
+      <c r="M165" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="N164" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N165" t="s">
         <v>157</v>
       </c>
@@ -6247,8 +6284,68 @@
         <v>157</v>
       </c>
     </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+    </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B170" s="5"/>
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
